--- a/Results/BSM1G_Steady-state Ringtest_20141013.xlsx
+++ b/Results/BSM1G_Steady-state Ringtest_20141013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="765" windowWidth="21375" windowHeight="9360" tabRatio="886"/>
+    <workbookView xWindow="75" yWindow="825" windowWidth="12285" windowHeight="7320" tabRatio="886" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Steady state simulation_Matlab" sheetId="11" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Dynamic simulation Day 7_dif" sheetId="15" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="21" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="199">
   <si>
     <t>K_SNO2_aob</t>
   </si>
@@ -1588,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19:AE19"/>
     </sheetView>
   </sheetViews>
@@ -10327,7 +10328,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B22" sqref="B22:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24778,4 +24779,636 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>21</v>
+      </c>
+      <c r="U2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2766900</v>
+      </c>
+      <c r="B4">
+        <v>1366721.7660952299</v>
+      </c>
+      <c r="C4">
+        <v>105811534.345423</v>
+      </c>
+      <c r="D4">
+        <v>8244198.1547261402</v>
+      </c>
+      <c r="E4">
+        <v>220876835.64768499</v>
+      </c>
+      <c r="F4">
+        <v>11990270.4161219</v>
+      </c>
+      <c r="G4">
+        <v>38747215.446040101</v>
+      </c>
+      <c r="H4">
+        <v>293481.32925423398</v>
+      </c>
+      <c r="I4">
+        <v>1204661.57272078</v>
+      </c>
+      <c r="J4">
+        <v>627520.61272055504</v>
+      </c>
+      <c r="K4">
+        <v>167783.092227382</v>
+      </c>
+      <c r="L4">
+        <v>534064.66562027903</v>
+      </c>
+      <c r="M4">
+        <v>396436.70643852698</v>
+      </c>
+      <c r="N4">
+        <v>175515129.02607101</v>
+      </c>
+      <c r="O4">
+        <v>92230</v>
+      </c>
+      <c r="P4">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>506.264855625878</v>
+      </c>
+      <c r="R4">
+        <v>43.231017701660598</v>
+      </c>
+      <c r="S4">
+        <v>22.6524340830528</v>
+      </c>
+      <c r="T4">
+        <v>1232653.3776046501</v>
+      </c>
+      <c r="U4">
+        <v>4196306.4855274502</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2766900</v>
+      </c>
+      <c r="B5">
+        <v>1366721.76356385</v>
+      </c>
+      <c r="C5">
+        <v>105811543.7807</v>
+      </c>
+      <c r="D5">
+        <v>8244198.3584664203</v>
+      </c>
+      <c r="E5">
+        <v>220876852.841479</v>
+      </c>
+      <c r="F5">
+        <v>11990271.4991943</v>
+      </c>
+      <c r="G5">
+        <v>38747219.256189503</v>
+      </c>
+      <c r="H5">
+        <v>293481.32799291197</v>
+      </c>
+      <c r="I5">
+        <v>1204661.5558563201</v>
+      </c>
+      <c r="J5">
+        <v>627520.60391554004</v>
+      </c>
+      <c r="K5">
+        <v>167783.091319962</v>
+      </c>
+      <c r="L5">
+        <v>534064.68387671304</v>
+      </c>
+      <c r="M5">
+        <v>396436.707021276</v>
+      </c>
+      <c r="N5">
+        <v>175515143.447932</v>
+      </c>
+      <c r="O5">
+        <v>92230</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>506.26476350069697</v>
+      </c>
+      <c r="R5">
+        <v>43.231011346935396</v>
+      </c>
+      <c r="S5">
+        <v>22.6524312858614</v>
+      </c>
+      <c r="T5">
+        <v>1232653.37778356</v>
+      </c>
+      <c r="U5">
+        <v>4196306.8522394197</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2766900</v>
+      </c>
+      <c r="B7">
+        <v>1366721.7639396801</v>
+      </c>
+      <c r="C7">
+        <v>105811503.092967</v>
+      </c>
+      <c r="D7">
+        <v>8244196.63183227</v>
+      </c>
+      <c r="E7">
+        <v>220876767.46313199</v>
+      </c>
+      <c r="F7">
+        <v>11990266.804657601</v>
+      </c>
+      <c r="G7">
+        <v>38747203.854927197</v>
+      </c>
+      <c r="H7">
+        <v>293481.328403814</v>
+      </c>
+      <c r="I7">
+        <v>1204661.5668007899</v>
+      </c>
+      <c r="J7">
+        <v>627520.60547802702</v>
+      </c>
+      <c r="K7">
+        <v>167783.09149017101</v>
+      </c>
+      <c r="L7">
+        <v>534064.55386866303</v>
+      </c>
+      <c r="M7">
+        <v>396436.70634913002</v>
+      </c>
+      <c r="N7">
+        <v>175515075.75361499</v>
+      </c>
+      <c r="O7">
+        <v>92230</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>506.26478279123398</v>
+      </c>
+      <c r="R7">
+        <v>43.2310126545229</v>
+      </c>
+      <c r="S7">
+        <v>22.652431855350098</v>
+      </c>
+      <c r="T7">
+        <v>1232653.3777040399</v>
+      </c>
+      <c r="U7">
+        <v>4196305.1940638199</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2766900</v>
+      </c>
+      <c r="B8">
+        <v>1366721.76394439</v>
+      </c>
+      <c r="C8">
+        <v>105811501.321288</v>
+      </c>
+      <c r="D8">
+        <v>8244196.5558812097</v>
+      </c>
+      <c r="E8">
+        <v>220876763.740116</v>
+      </c>
+      <c r="F8">
+        <v>11990266.602085</v>
+      </c>
+      <c r="G8">
+        <v>38747203.200313501</v>
+      </c>
+      <c r="H8">
+        <v>293481.32845473301</v>
+      </c>
+      <c r="I8">
+        <v>1204661.5667797299</v>
+      </c>
+      <c r="J8">
+        <v>627520.60550673504</v>
+      </c>
+      <c r="K8">
+        <v>167783.091492206</v>
+      </c>
+      <c r="L8">
+        <v>534064.54815966496</v>
+      </c>
+      <c r="M8">
+        <v>396436.70635266602</v>
+      </c>
+      <c r="N8">
+        <v>175515072.80697799</v>
+      </c>
+      <c r="O8">
+        <v>92230</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>506.26478307802199</v>
+      </c>
+      <c r="R8">
+        <v>43.231012675052</v>
+      </c>
+      <c r="S8">
+        <v>22.652431863241901</v>
+      </c>
+      <c r="T8">
+        <v>1232653.37770256</v>
+      </c>
+      <c r="U8">
+        <v>4196305.1231685197</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>14.818624808538299</v>
+      </c>
+      <c r="C17">
+        <v>1147.25723040817</v>
+      </c>
+      <c r="D17">
+        <v>89.387381047252504</v>
+      </c>
+      <c r="E17">
+        <v>2394.84805002445</v>
+      </c>
+      <c r="F17">
+        <v>130.00401623935801</v>
+      </c>
+      <c r="G17">
+        <v>420.11509753338601</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3.1820593001647</v>
+      </c>
+      <c r="I17">
+        <v>13.0614937950825</v>
+      </c>
+      <c r="J17">
+        <v>6.8038665589485703</v>
+      </c>
+      <c r="K17">
+        <v>1.81918131006645</v>
+      </c>
+      <c r="L17">
+        <v>5.7905742775651099</v>
+      </c>
+      <c r="M17">
+        <v>4.2983487632928501</v>
+      </c>
+      <c r="N17">
+        <v>3170.3310424229699</v>
+      </c>
+      <c r="O17">
+        <v>92230</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>5.4891559756073197E-3</v>
+      </c>
+      <c r="R17">
+        <v>4.6873053998241099E-4</v>
+      </c>
+      <c r="S17">
+        <v>2.4560808937407501E-4</v>
+      </c>
+      <c r="T17">
+        <v>13.3649937938271</v>
+      </c>
+      <c r="U17">
+        <v>45.498281311348002</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>14.818624781144001</v>
+      </c>
+      <c r="C18">
+        <v>1147.25733249722</v>
+      </c>
+      <c r="D18">
+        <v>89.387383266602995</v>
+      </c>
+      <c r="E18">
+        <v>2394.8482363646299</v>
+      </c>
+      <c r="F18">
+        <v>130.00402795989001</v>
+      </c>
+      <c r="G18">
+        <v>420.11513885335501</v>
+      </c>
+      <c r="H18" s="13">
+        <v>3.1820592864883599</v>
+      </c>
+      <c r="I18">
+        <v>13.0614936122291</v>
+      </c>
+      <c r="J18">
+        <v>6.8038664633381698</v>
+      </c>
+      <c r="K18">
+        <v>1.81918130022683</v>
+      </c>
+      <c r="L18">
+        <v>5.7905744755242701</v>
+      </c>
+      <c r="M18">
+        <v>4.2983487696119003</v>
+      </c>
+      <c r="N18">
+        <v>3170.3313031737598</v>
+      </c>
+      <c r="O18">
+        <v>92230</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>5.4891549766544001E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.6873047106625902E-4</v>
+      </c>
+      <c r="S18">
+        <v>2.4560805904607399E-4</v>
+      </c>
+      <c r="T18">
+        <v>13.364993795766599</v>
+      </c>
+      <c r="U18">
+        <v>45.498285289982597</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>